--- a/Data processing/LO_compcase_es.xlsx
+++ b/Data processing/LO_compcase_es.xlsx
@@ -556,6 +556,11 @@
       <c r="R2">
         <v>144</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>N</t>
@@ -641,6 +646,11 @@
       <c r="R3">
         <v>343</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>N</t>
@@ -726,6 +736,11 @@
       <c r="R4">
         <v>343</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>N</t>
@@ -811,6 +826,11 @@
       <c r="R5">
         <v>343</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>N</t>
@@ -896,6 +916,11 @@
       <c r="R6">
         <v>1000</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>N</t>
@@ -981,6 +1006,11 @@
       <c r="R7">
         <v>1000</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>N</t>
@@ -1066,6 +1096,11 @@
       <c r="R8">
         <v>343</v>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>N</t>
@@ -1151,6 +1186,11 @@
       <c r="R9">
         <v>343</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>N</t>
@@ -1236,6 +1276,11 @@
       <c r="R10">
         <v>343</v>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>N</t>
@@ -1321,6 +1366,11 @@
       <c r="R11">
         <v>343</v>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>N</t>
@@ -1406,6 +1456,11 @@
       <c r="R12">
         <v>343</v>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
           <t>N</t>
@@ -1491,6 +1546,11 @@
       <c r="R13">
         <v>343</v>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
           <t>N</t>
@@ -1576,6 +1636,11 @@
       <c r="R14">
         <v>343</v>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
           <t>N</t>
@@ -1661,6 +1726,11 @@
       <c r="R15">
         <v>500</v>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
           <t>N</t>
@@ -1746,6 +1816,11 @@
       <c r="R16">
         <v>500</v>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t>N</t>
@@ -1831,6 +1906,11 @@
       <c r="R17">
         <v>500</v>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
           <t>N</t>
@@ -1916,6 +1996,11 @@
       <c r="R18">
         <v>500</v>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
           <t>N</t>
@@ -2001,6 +2086,11 @@
       <c r="R19">
         <v>500</v>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
           <t>N</t>
@@ -2086,6 +2176,11 @@
       <c r="R20">
         <v>500</v>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
           <t>N</t>
@@ -2171,6 +2266,11 @@
       <c r="R21">
         <v>461</v>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>N</t>
@@ -2256,6 +2356,11 @@
       <c r="R22">
         <v>414</v>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
           <t>N</t>
@@ -2341,6 +2446,11 @@
       <c r="R23">
         <v>236</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
           <t>N</t>
@@ -2426,6 +2536,11 @@
       <c r="R24">
         <v>274</v>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
           <t>N</t>
@@ -2511,6 +2626,11 @@
       <c r="R25">
         <v>36</v>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>N</t>
@@ -2596,6 +2716,11 @@
       <c r="R26">
         <v>36</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
           <t>N</t>
@@ -2681,6 +2806,11 @@
       <c r="R27">
         <v>36</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>N</t>
@@ -2766,6 +2896,11 @@
       <c r="R28">
         <v>36</v>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
           <t>N</t>
@@ -2851,6 +2986,11 @@
       <c r="R29">
         <v>36</v>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
           <t>N</t>
@@ -2936,6 +3076,11 @@
       <c r="R30">
         <v>36</v>
       </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
           <t>N</t>
@@ -3021,6 +3166,11 @@
       <c r="R31">
         <v>36</v>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
           <t>N</t>
@@ -3106,6 +3256,11 @@
       <c r="R32">
         <v>36</v>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
           <t>N</t>
@@ -3191,6 +3346,11 @@
       <c r="R33">
         <v>36</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
           <t>N</t>
@@ -3276,6 +3436,11 @@
       <c r="R34">
         <v>36</v>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>N</t>
@@ -3361,6 +3526,11 @@
       <c r="R35">
         <v>36</v>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
           <t>N</t>
@@ -3446,6 +3616,11 @@
       <c r="R36">
         <v>36</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
           <t>N</t>
@@ -3531,6 +3706,11 @@
       <c r="R37">
         <v>36</v>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>N</t>
@@ -3616,6 +3796,11 @@
       <c r="R38">
         <v>36</v>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
           <t>N</t>
@@ -3701,6 +3886,11 @@
       <c r="R39">
         <v>36</v>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
           <t>N</t>
@@ -3786,6 +3976,11 @@
       <c r="R40">
         <v>36</v>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
           <t>N</t>
@@ -3871,6 +4066,11 @@
       <c r="R41">
         <v>36</v>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>N</t>
@@ -3956,6 +4156,11 @@
       <c r="R42">
         <v>36</v>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>N</t>
@@ -4041,6 +4246,11 @@
       <c r="R43">
         <v>36</v>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
           <t>N</t>
@@ -4126,6 +4336,11 @@
       <c r="R44">
         <v>36</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
           <t>N</t>
@@ -4211,6 +4426,11 @@
       <c r="R45">
         <v>36</v>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
           <t>N</t>
@@ -4296,6 +4516,11 @@
       <c r="R46">
         <v>36</v>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
           <t>N</t>
@@ -4381,6 +4606,11 @@
       <c r="R47">
         <v>36</v>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>N</t>
@@ -4466,6 +4696,11 @@
       <c r="R48">
         <v>36</v>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
           <t>N</t>
@@ -4551,6 +4786,11 @@
       <c r="R49">
         <v>36</v>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
           <t>N</t>
@@ -4636,6 +4876,11 @@
       <c r="R50">
         <v>36</v>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>N</t>
@@ -4721,6 +4966,11 @@
       <c r="R51">
         <v>36</v>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
           <t>N</t>
@@ -4806,6 +5056,11 @@
       <c r="R52">
         <v>36</v>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
           <t>N</t>
@@ -4891,6 +5146,11 @@
       <c r="R53">
         <v>36</v>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
           <t>N</t>
@@ -4976,6 +5236,11 @@
       <c r="R54">
         <v>36</v>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
           <t>N</t>
@@ -5061,6 +5326,11 @@
       <c r="R55">
         <v>36</v>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
           <t>N</t>
@@ -5146,6 +5416,11 @@
       <c r="R56">
         <v>36</v>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
           <t>N</t>
@@ -5231,6 +5506,11 @@
       <c r="R57">
         <v>36</v>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
           <t>N</t>
@@ -5316,6 +5596,11 @@
       <c r="R58">
         <v>36</v>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
           <t>N</t>
@@ -5401,6 +5686,11 @@
       <c r="R59">
         <v>36</v>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
           <t>N</t>
@@ -5486,6 +5776,11 @@
       <c r="R60">
         <v>36</v>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
           <t>N</t>
@@ -5571,6 +5866,11 @@
       <c r="R61">
         <v>36</v>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
           <t>N</t>
@@ -5656,6 +5956,11 @@
       <c r="R62">
         <v>36</v>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
           <t>N</t>
@@ -5741,6 +6046,11 @@
       <c r="R63">
         <v>36</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr">
         <is>
           <t>N</t>
@@ -5826,6 +6136,11 @@
       <c r="R64">
         <v>36</v>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
           <t>N</t>
@@ -5911,6 +6226,11 @@
       <c r="R65">
         <v>36</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr">
         <is>
           <t>N</t>
@@ -5996,6 +6316,11 @@
       <c r="R66">
         <v>36</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr">
         <is>
           <t>N</t>
@@ -6081,6 +6406,11 @@
       <c r="R67">
         <v>48</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr">
         <is>
           <t>N</t>
@@ -6166,6 +6496,11 @@
       <c r="R68">
         <v>48</v>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr">
         <is>
           <t>N</t>
@@ -6251,6 +6586,11 @@
       <c r="R69">
         <v>48</v>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr">
         <is>
           <t>N</t>
@@ -6336,6 +6676,11 @@
       <c r="R70">
         <v>9</v>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr">
         <is>
           <t>N</t>
@@ -6421,6 +6766,11 @@
       <c r="R71">
         <v>15</v>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr">
         <is>
           <t>N</t>
@@ -6506,6 +6856,11 @@
       <c r="R72">
         <v>13</v>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr">
         <is>
           <t>N</t>
@@ -6591,6 +6946,11 @@
       <c r="R73">
         <v>9</v>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr">
         <is>
           <t>N</t>
@@ -6676,6 +7036,11 @@
       <c r="R74">
         <v>14</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr">
         <is>
           <t>N</t>
@@ -6761,6 +7126,11 @@
       <c r="R75">
         <v>18</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr">
         <is>
           <t>N</t>
@@ -6846,6 +7216,11 @@
       <c r="R76">
         <v>48</v>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr">
         <is>
           <t>N</t>
@@ -6931,6 +7306,11 @@
       <c r="R77">
         <v>48</v>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
           <t>N</t>
@@ -7016,6 +7396,11 @@
       <c r="R78">
         <v>48</v>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
           <t>N</t>
@@ -7101,6 +7486,11 @@
       <c r="R79">
         <v>18</v>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr">
         <is>
           <t>N</t>
@@ -7186,6 +7576,11 @@
       <c r="R80">
         <v>12</v>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr">
         <is>
           <t>N</t>
@@ -7271,6 +7666,11 @@
       <c r="R81">
         <v>9</v>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
           <t>N</t>
@@ -7356,6 +7756,11 @@
       <c r="R82">
         <v>15</v>
       </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
           <t>N</t>
@@ -7441,6 +7846,11 @@
       <c r="R83">
         <v>9</v>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
           <t>N</t>
@@ -7526,6 +7936,11 @@
       <c r="R84">
         <v>15</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
           <t>N</t>
@@ -7611,6 +8026,11 @@
       <c r="R85">
         <v>48</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
           <t>N</t>
@@ -7696,6 +8116,11 @@
       <c r="R86">
         <v>48</v>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
           <t>N</t>
@@ -7781,6 +8206,11 @@
       <c r="R87">
         <v>48</v>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr">
         <is>
           <t>N</t>
@@ -7866,6 +8296,11 @@
       <c r="R88">
         <v>24</v>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
           <t>N</t>
@@ -7951,6 +8386,11 @@
       <c r="R89">
         <v>24</v>
       </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
           <t>N</t>
@@ -8036,6 +8476,11 @@
       <c r="R90">
         <v>24</v>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
           <t>N</t>
@@ -8121,6 +8566,11 @@
       <c r="R91">
         <v>24</v>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr">
         <is>
           <t>N</t>
@@ -8206,6 +8656,11 @@
       <c r="R92">
         <v>24</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr">
         <is>
           <t>N</t>
@@ -8291,6 +8746,11 @@
       <c r="R93">
         <v>24</v>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr">
         <is>
           <t>N</t>
@@ -8376,6 +8836,11 @@
       <c r="R94">
         <v>24</v>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr">
         <is>
           <t>N</t>
@@ -8461,6 +8926,11 @@
       <c r="R95">
         <v>24</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr">
         <is>
           <t>N</t>
@@ -8546,6 +9016,11 @@
       <c r="R96">
         <v>24</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr">
         <is>
           <t>N</t>
@@ -8631,6 +9106,11 @@
       <c r="R97">
         <v>24</v>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr">
         <is>
           <t>N</t>
@@ -8716,6 +9196,11 @@
       <c r="R98">
         <v>24</v>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr">
         <is>
           <t>N</t>
@@ -8801,6 +9286,11 @@
       <c r="R99">
         <v>24</v>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr">
         <is>
           <t>N</t>
@@ -8886,6 +9376,11 @@
       <c r="R100">
         <v>414</v>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr">
         <is>
           <t>N</t>
@@ -8971,6 +9466,11 @@
       <c r="R101">
         <v>1039</v>
       </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr">
         <is>
           <t>N</t>
@@ -9056,6 +9556,11 @@
       <c r="R102">
         <v>734</v>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr">
         <is>
           <t>N</t>
@@ -9141,6 +9646,11 @@
       <c r="R103">
         <v>120</v>
       </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V103" t="inlineStr">
         <is>
           <t>N</t>
@@ -9226,6 +9736,11 @@
       <c r="R104">
         <v>160</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V104" t="inlineStr">
         <is>
           <t>N</t>
@@ -9311,6 +9826,11 @@
       <c r="R105">
         <v>160</v>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V105" t="inlineStr">
         <is>
           <t>N</t>
@@ -9396,6 +9916,11 @@
       <c r="R106">
         <v>160</v>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr">
         <is>
           <t>N</t>
@@ -9481,6 +10006,11 @@
       <c r="R107">
         <v>160</v>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr">
         <is>
           <t>N</t>
@@ -9566,6 +10096,11 @@
       <c r="R108">
         <v>160</v>
       </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V108" t="inlineStr">
         <is>
           <t>N</t>
@@ -9651,6 +10186,11 @@
       <c r="R109">
         <v>268</v>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V109" t="inlineStr">
         <is>
           <t>N</t>
@@ -9736,6 +10276,11 @@
       <c r="R110">
         <v>548</v>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr">
         <is>
           <t>N</t>
@@ -9821,6 +10366,11 @@
       <c r="R111">
         <v>119</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr">
         <is>
           <t>N</t>
@@ -9906,6 +10456,11 @@
       <c r="R112">
         <v>59</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr">
         <is>
           <t>N</t>
@@ -9991,6 +10546,11 @@
       <c r="R113">
         <v>41</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr">
         <is>
           <t>N</t>
@@ -10076,6 +10636,11 @@
       <c r="R114">
         <v>96</v>
       </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V114" t="inlineStr">
         <is>
           <t>N</t>
@@ -10161,6 +10726,11 @@
       <c r="R115">
         <v>96</v>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V115" t="inlineStr">
         <is>
           <t>N</t>
@@ -10246,6 +10816,11 @@
       <c r="R116">
         <v>96</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V116" t="inlineStr">
         <is>
           <t>N</t>
@@ -10331,6 +10906,11 @@
       <c r="R117">
         <v>96</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V117" t="inlineStr">
         <is>
           <t>N</t>
@@ -10416,6 +10996,11 @@
       <c r="R118">
         <v>96</v>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr">
         <is>
           <t>N</t>
@@ -10501,6 +11086,11 @@
       <c r="R119">
         <v>96</v>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V119" t="inlineStr">
         <is>
           <t>N</t>
@@ -10586,6 +11176,11 @@
       <c r="R120">
         <v>96</v>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V120" t="inlineStr">
         <is>
           <t>N</t>
@@ -10671,6 +11266,11 @@
       <c r="R121">
         <v>96</v>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V121" t="inlineStr">
         <is>
           <t>N</t>
@@ -10756,6 +11356,11 @@
       <c r="R122">
         <v>96</v>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V122" t="inlineStr">
         <is>
           <t>N</t>
@@ -10841,6 +11446,11 @@
       <c r="R123">
         <v>96</v>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V123" t="inlineStr">
         <is>
           <t>N</t>
@@ -10926,6 +11536,11 @@
       <c r="R124">
         <v>96</v>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V124" t="inlineStr">
         <is>
           <t>N</t>
@@ -11011,6 +11626,11 @@
       <c r="R125">
         <v>96</v>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V125" t="inlineStr">
         <is>
           <t>N</t>
@@ -11096,6 +11716,11 @@
       <c r="R126">
         <v>96</v>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V126" t="inlineStr">
         <is>
           <t>N</t>
@@ -11181,6 +11806,11 @@
       <c r="R127">
         <v>96</v>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V127" t="inlineStr">
         <is>
           <t>N</t>
@@ -11266,6 +11896,11 @@
       <c r="R128">
         <v>96</v>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V128" t="inlineStr">
         <is>
           <t>N</t>
@@ -11351,6 +11986,11 @@
       <c r="R129">
         <v>96</v>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V129" t="inlineStr">
         <is>
           <t>N</t>
@@ -11436,6 +12076,11 @@
       <c r="R130">
         <v>96</v>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V130" t="inlineStr">
         <is>
           <t>N</t>
@@ -11521,6 +12166,11 @@
       <c r="R131">
         <v>96</v>
       </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr">
         <is>
           <t>N</t>
@@ -11606,6 +12256,11 @@
       <c r="R132">
         <v>96</v>
       </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr">
         <is>
           <t>N</t>
@@ -11691,6 +12346,11 @@
       <c r="R133">
         <v>96</v>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V133" t="inlineStr">
         <is>
           <t>N</t>
@@ -11776,6 +12436,11 @@
       <c r="R134">
         <v>96</v>
       </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V134" t="inlineStr">
         <is>
           <t>N</t>
@@ -11861,6 +12526,11 @@
       <c r="R135">
         <v>96</v>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V135" t="inlineStr">
         <is>
           <t>N</t>
@@ -11946,6 +12616,11 @@
       <c r="R136">
         <v>96</v>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V136" t="inlineStr">
         <is>
           <t>N</t>
@@ -12031,6 +12706,11 @@
       <c r="R137">
         <v>96</v>
       </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V137" t="inlineStr">
         <is>
           <t>N</t>
@@ -12116,6 +12796,11 @@
       <c r="R138">
         <v>96</v>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V138" t="inlineStr">
         <is>
           <t>N</t>
@@ -12201,6 +12886,11 @@
       <c r="R139">
         <v>96</v>
       </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V139" t="inlineStr">
         <is>
           <t>N</t>
@@ -12286,6 +12976,11 @@
       <c r="R140">
         <v>96</v>
       </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V140" t="inlineStr">
         <is>
           <t>N</t>
@@ -12371,6 +13066,11 @@
       <c r="R141">
         <v>96</v>
       </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V141" t="inlineStr">
         <is>
           <t>N</t>
@@ -12456,6 +13156,11 @@
       <c r="R142">
         <v>96</v>
       </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V142" t="inlineStr">
         <is>
           <t>N</t>
@@ -12541,6 +13246,11 @@
       <c r="R143">
         <v>96</v>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V143" t="inlineStr">
         <is>
           <t>N</t>
@@ -12626,6 +13336,11 @@
       <c r="R144">
         <v>96</v>
       </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V144" t="inlineStr">
         <is>
           <t>N</t>
@@ -12711,6 +13426,11 @@
       <c r="R145">
         <v>96</v>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V145" t="inlineStr">
         <is>
           <t>N</t>
@@ -12796,6 +13516,11 @@
       <c r="R146">
         <v>96</v>
       </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V146" t="inlineStr">
         <is>
           <t>N</t>
@@ -12881,6 +13606,11 @@
       <c r="R147">
         <v>96</v>
       </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V147" t="inlineStr">
         <is>
           <t>N</t>
@@ -12966,6 +13696,11 @@
       <c r="R148">
         <v>96</v>
       </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V148" t="inlineStr">
         <is>
           <t>N</t>
@@ -13051,6 +13786,11 @@
       <c r="R149">
         <v>96</v>
       </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V149" t="inlineStr">
         <is>
           <t>N</t>
@@ -13136,6 +13876,11 @@
       <c r="R150">
         <v>96</v>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V150" t="inlineStr">
         <is>
           <t>N</t>
@@ -13221,6 +13966,11 @@
       <c r="R151">
         <v>96</v>
       </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V151" t="inlineStr">
         <is>
           <t>N</t>
@@ -13306,6 +14056,11 @@
       <c r="R152">
         <v>96</v>
       </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V152" t="inlineStr">
         <is>
           <t>N</t>
@@ -13391,6 +14146,11 @@
       <c r="R153">
         <v>96</v>
       </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V153" t="inlineStr">
         <is>
           <t>N</t>
@@ -13476,6 +14236,11 @@
       <c r="R154">
         <v>96</v>
       </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V154" t="inlineStr">
         <is>
           <t>N</t>
@@ -13561,6 +14326,11 @@
       <c r="R155">
         <v>96</v>
       </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V155" t="inlineStr">
         <is>
           <t>N</t>
@@ -13646,6 +14416,11 @@
       <c r="R156">
         <v>96</v>
       </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V156" t="inlineStr">
         <is>
           <t>N</t>
@@ -13731,6 +14506,11 @@
       <c r="R157">
         <v>96</v>
       </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V157" t="inlineStr">
         <is>
           <t>N</t>
@@ -13816,6 +14596,11 @@
       <c r="R158">
         <v>96</v>
       </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V158" t="inlineStr">
         <is>
           <t>N</t>
@@ -13901,6 +14686,11 @@
       <c r="R159">
         <v>96</v>
       </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V159" t="inlineStr">
         <is>
           <t>N</t>
@@ -13986,6 +14776,11 @@
       <c r="R160">
         <v>96</v>
       </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V160" t="inlineStr">
         <is>
           <t>N</t>
@@ -14071,6 +14866,11 @@
       <c r="R161">
         <v>96</v>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V161" t="inlineStr">
         <is>
           <t>N</t>
@@ -14156,6 +14956,11 @@
       <c r="R162">
         <v>96</v>
       </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V162" t="inlineStr">
         <is>
           <t>N</t>
@@ -14241,6 +15046,11 @@
       <c r="R163">
         <v>96</v>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V163" t="inlineStr">
         <is>
           <t>N</t>
@@ -14326,6 +15136,11 @@
       <c r="R164">
         <v>96</v>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V164" t="inlineStr">
         <is>
           <t>N</t>
@@ -14411,6 +15226,11 @@
       <c r="R165">
         <v>96</v>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V165" t="inlineStr">
         <is>
           <t>N</t>
@@ -14496,6 +15316,11 @@
       <c r="R166">
         <v>96</v>
       </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V166" t="inlineStr">
         <is>
           <t>N</t>
@@ -14581,6 +15406,11 @@
       <c r="R167">
         <v>96</v>
       </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V167" t="inlineStr">
         <is>
           <t>N</t>
@@ -14666,6 +15496,11 @@
       <c r="R168">
         <v>96</v>
       </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V168" t="inlineStr">
         <is>
           <t>N</t>
@@ -14751,6 +15586,11 @@
       <c r="R169">
         <v>96</v>
       </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V169" t="inlineStr">
         <is>
           <t>N</t>
@@ -14836,6 +15676,11 @@
       <c r="R170">
         <v>96</v>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V170" t="inlineStr">
         <is>
           <t>N</t>
@@ -14921,6 +15766,11 @@
       <c r="R171">
         <v>96</v>
       </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V171" t="inlineStr">
         <is>
           <t>N</t>
@@ -15006,6 +15856,11 @@
       <c r="R172">
         <v>96</v>
       </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V172" t="inlineStr">
         <is>
           <t>N</t>
@@ -15091,6 +15946,11 @@
       <c r="R173">
         <v>96</v>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V173" t="inlineStr">
         <is>
           <t>N</t>
@@ -15176,6 +16036,11 @@
       <c r="R174">
         <v>96</v>
       </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V174" t="inlineStr">
         <is>
           <t>N</t>
@@ -15261,6 +16126,11 @@
       <c r="R175">
         <v>96</v>
       </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V175" t="inlineStr">
         <is>
           <t>N</t>
@@ -15346,6 +16216,11 @@
       <c r="R176">
         <v>96</v>
       </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V176" t="inlineStr">
         <is>
           <t>N</t>
@@ -15431,6 +16306,11 @@
       <c r="R177">
         <v>160</v>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V177" t="inlineStr">
         <is>
           <t>N</t>
@@ -15516,6 +16396,11 @@
       <c r="R178">
         <v>160</v>
       </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V178" t="inlineStr">
         <is>
           <t>N</t>
@@ -15601,6 +16486,11 @@
       <c r="R179">
         <v>160</v>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V179" t="inlineStr">
         <is>
           <t>N</t>
@@ -15686,6 +16576,11 @@
       <c r="R180">
         <v>160</v>
       </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V180" t="inlineStr">
         <is>
           <t>N</t>
@@ -15771,6 +16666,11 @@
       <c r="R181">
         <v>160</v>
       </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V181" t="inlineStr">
         <is>
           <t>N</t>
@@ -15856,6 +16756,11 @@
       <c r="R182">
         <v>160</v>
       </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V182" t="inlineStr">
         <is>
           <t>N</t>
@@ -15941,6 +16846,11 @@
       <c r="R183">
         <v>96</v>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V183" t="inlineStr">
         <is>
           <t>N</t>
@@ -16026,6 +16936,11 @@
       <c r="R184">
         <v>96</v>
       </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V184" t="inlineStr">
         <is>
           <t>N</t>
@@ -16111,6 +17026,11 @@
       <c r="R185">
         <v>96</v>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V185" t="inlineStr">
         <is>
           <t>N</t>
@@ -16196,6 +17116,11 @@
       <c r="R186">
         <v>96</v>
       </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V186" t="inlineStr">
         <is>
           <t>N</t>
@@ -16281,6 +17206,11 @@
       <c r="R187">
         <v>72</v>
       </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V187" t="inlineStr">
         <is>
           <t>N</t>
@@ -16366,6 +17296,11 @@
       <c r="R188">
         <v>72</v>
       </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V188" t="inlineStr">
         <is>
           <t>N</t>
@@ -16451,6 +17386,11 @@
       <c r="R189">
         <v>72</v>
       </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V189" t="inlineStr">
         <is>
           <t>N</t>
@@ -16536,6 +17476,11 @@
       <c r="R190">
         <v>72</v>
       </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V190" t="inlineStr">
         <is>
           <t>N</t>
@@ -16621,6 +17566,11 @@
       <c r="R191">
         <v>72</v>
       </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V191" t="inlineStr">
         <is>
           <t>N</t>
@@ -16706,6 +17656,11 @@
       <c r="R192">
         <v>72</v>
       </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V192" t="inlineStr">
         <is>
           <t>N</t>
@@ -16791,6 +17746,11 @@
       <c r="R193">
         <v>72</v>
       </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V193" t="inlineStr">
         <is>
           <t>N</t>
@@ -16876,6 +17836,11 @@
       <c r="R194">
         <v>72</v>
       </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V194" t="inlineStr">
         <is>
           <t>N</t>
@@ -16961,6 +17926,11 @@
       <c r="R195">
         <v>72</v>
       </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V195" t="inlineStr">
         <is>
           <t>N</t>
@@ -17046,6 +18016,11 @@
       <c r="R196">
         <v>72</v>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V196" t="inlineStr">
         <is>
           <t>N</t>
@@ -17131,6 +18106,11 @@
       <c r="R197">
         <v>72</v>
       </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V197" t="inlineStr">
         <is>
           <t>N</t>
@@ -17216,6 +18196,11 @@
       <c r="R198">
         <v>72</v>
       </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V198" t="inlineStr">
         <is>
           <t>N</t>
@@ -17301,6 +18286,11 @@
       <c r="R199">
         <v>96</v>
       </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V199" t="inlineStr">
         <is>
           <t>N</t>
@@ -17386,6 +18376,11 @@
       <c r="R200">
         <v>96</v>
       </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V200" t="inlineStr">
         <is>
           <t>N</t>
@@ -17471,6 +18466,11 @@
       <c r="R201">
         <v>96</v>
       </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V201" t="inlineStr">
         <is>
           <t>N</t>
@@ -17556,6 +18556,11 @@
       <c r="R202">
         <v>96</v>
       </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V202" t="inlineStr">
         <is>
           <t>N</t>
@@ -17641,6 +18646,11 @@
       <c r="R203">
         <v>96</v>
       </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V203" t="inlineStr">
         <is>
           <t>N</t>
@@ -17726,6 +18736,11 @@
       <c r="R204">
         <v>96</v>
       </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V204" t="inlineStr">
         <is>
           <t>N</t>
@@ -17811,6 +18826,11 @@
       <c r="R205">
         <v>96</v>
       </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V205" t="inlineStr">
         <is>
           <t>N</t>
@@ -17896,6 +18916,11 @@
       <c r="R206">
         <v>96</v>
       </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V206" t="inlineStr">
         <is>
           <t>N</t>
@@ -17981,6 +19006,11 @@
       <c r="R207">
         <v>96</v>
       </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V207" t="inlineStr">
         <is>
           <t>N</t>
@@ -18066,6 +19096,11 @@
       <c r="R208">
         <v>96</v>
       </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V208" t="inlineStr">
         <is>
           <t>N</t>
@@ -18151,6 +19186,11 @@
       <c r="R209">
         <v>96</v>
       </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V209" t="inlineStr">
         <is>
           <t>N</t>
@@ -18236,6 +19276,11 @@
       <c r="R210">
         <v>96</v>
       </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V210" t="inlineStr">
         <is>
           <t>N</t>
@@ -18321,6 +19366,11 @@
       <c r="R211">
         <v>96</v>
       </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V211" t="inlineStr">
         <is>
           <t>N</t>
@@ -18406,6 +19456,11 @@
       <c r="R212">
         <v>96</v>
       </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V212" t="inlineStr">
         <is>
           <t>N</t>
@@ -18491,6 +19546,11 @@
       <c r="R213">
         <v>96</v>
       </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V213" t="inlineStr">
         <is>
           <t>N</t>
@@ -18576,6 +19636,11 @@
       <c r="R214">
         <v>96</v>
       </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V214" t="inlineStr">
         <is>
           <t>N</t>
@@ -18661,6 +19726,11 @@
       <c r="R215">
         <v>96</v>
       </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>N</t>
@@ -18746,6 +19816,11 @@
       <c r="R216">
         <v>96</v>
       </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V216" t="inlineStr">
         <is>
           <t>N</t>
@@ -18831,6 +19906,11 @@
       <c r="R217">
         <v>96</v>
       </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V217" t="inlineStr">
         <is>
           <t>N</t>
@@ -18916,6 +19996,11 @@
       <c r="R218">
         <v>96</v>
       </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V218" t="inlineStr">
         <is>
           <t>N</t>
@@ -19001,6 +20086,11 @@
       <c r="R219">
         <v>96</v>
       </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V219" t="inlineStr">
         <is>
           <t>N</t>
@@ -19086,6 +20176,11 @@
       <c r="R220">
         <v>96</v>
       </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V220" t="inlineStr">
         <is>
           <t>N</t>
@@ -19171,6 +20266,11 @@
       <c r="R221">
         <v>96</v>
       </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V221" t="inlineStr">
         <is>
           <t>N</t>
@@ -19256,6 +20356,11 @@
       <c r="R222">
         <v>60</v>
       </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V222" t="inlineStr">
         <is>
           <t>N</t>
@@ -19341,6 +20446,11 @@
       <c r="R223">
         <v>60</v>
       </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V223" t="inlineStr">
         <is>
           <t>N</t>
@@ -19426,6 +20536,11 @@
       <c r="R224">
         <v>60</v>
       </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V224" t="inlineStr">
         <is>
           <t>N</t>
@@ -19511,6 +20626,11 @@
       <c r="R225">
         <v>60</v>
       </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V225" t="inlineStr">
         <is>
           <t>N</t>
@@ -19596,6 +20716,11 @@
       <c r="R226">
         <v>60</v>
       </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V226" t="inlineStr">
         <is>
           <t>N</t>
@@ -19681,6 +20806,11 @@
       <c r="R227">
         <v>60</v>
       </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V227" t="inlineStr">
         <is>
           <t>N</t>
@@ -19766,6 +20896,11 @@
       <c r="R228">
         <v>60</v>
       </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V228" t="inlineStr">
         <is>
           <t>N</t>
@@ -19851,6 +20986,11 @@
       <c r="R229">
         <v>60</v>
       </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V229" t="inlineStr">
         <is>
           <t>N</t>
@@ -19936,6 +21076,11 @@
       <c r="R230">
         <v>60</v>
       </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V230" t="inlineStr">
         <is>
           <t>N</t>
@@ -20021,6 +21166,11 @@
       <c r="R231">
         <v>60</v>
       </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V231" t="inlineStr">
         <is>
           <t>N</t>
@@ -20106,6 +21256,11 @@
       <c r="R232">
         <v>60</v>
       </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V232" t="inlineStr">
         <is>
           <t>N</t>
@@ -20191,6 +21346,11 @@
       <c r="R233">
         <v>60</v>
       </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V233" t="inlineStr">
         <is>
           <t>N</t>
@@ -20276,6 +21436,11 @@
       <c r="R234">
         <v>60</v>
       </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V234" t="inlineStr">
         <is>
           <t>N</t>
@@ -20361,6 +21526,11 @@
       <c r="R235">
         <v>60</v>
       </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V235" t="inlineStr">
         <is>
           <t>N</t>
@@ -20446,6 +21616,11 @@
       <c r="R236">
         <v>60</v>
       </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V236" t="inlineStr">
         <is>
           <t>N</t>
@@ -20531,6 +21706,11 @@
       <c r="R237">
         <v>60</v>
       </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V237" t="inlineStr">
         <is>
           <t>N</t>
@@ -20616,6 +21796,11 @@
       <c r="R238">
         <v>60</v>
       </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V238" t="inlineStr">
         <is>
           <t>N</t>
@@ -20701,6 +21886,11 @@
       <c r="R239">
         <v>60</v>
       </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V239" t="inlineStr">
         <is>
           <t>N</t>
@@ -20786,6 +21976,11 @@
       <c r="R240">
         <v>60</v>
       </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V240" t="inlineStr">
         <is>
           <t>N</t>
@@ -20871,6 +22066,11 @@
       <c r="R241">
         <v>60</v>
       </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V241" t="inlineStr">
         <is>
           <t>N</t>
@@ -20956,6 +22156,11 @@
       <c r="R242">
         <v>60</v>
       </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V242" t="inlineStr">
         <is>
           <t>N</t>
@@ -21041,6 +22246,11 @@
       <c r="R243">
         <v>60</v>
       </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V243" t="inlineStr">
         <is>
           <t>N</t>
@@ -21126,6 +22336,11 @@
       <c r="R244">
         <v>60</v>
       </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V244" t="inlineStr">
         <is>
           <t>N</t>
@@ -21211,6 +22426,11 @@
       <c r="R245">
         <v>60</v>
       </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V245" t="inlineStr">
         <is>
           <t>N</t>
@@ -21296,6 +22516,11 @@
       <c r="R246">
         <v>60</v>
       </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V246" t="inlineStr">
         <is>
           <t>N</t>
@@ -21381,6 +22606,11 @@
       <c r="R247">
         <v>60</v>
       </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V247" t="inlineStr">
         <is>
           <t>N</t>
@@ -21466,6 +22696,11 @@
       <c r="R248">
         <v>60</v>
       </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V248" t="inlineStr">
         <is>
           <t>N</t>
@@ -21551,6 +22786,11 @@
       <c r="R249">
         <v>60</v>
       </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V249" t="inlineStr">
         <is>
           <t>N</t>
@@ -21636,6 +22876,11 @@
       <c r="R250">
         <v>60</v>
       </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V250" t="inlineStr">
         <is>
           <t>N</t>
@@ -21721,6 +22966,11 @@
       <c r="R251">
         <v>60</v>
       </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V251" t="inlineStr">
         <is>
           <t>N</t>
@@ -21806,6 +23056,11 @@
       <c r="R252">
         <v>60</v>
       </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V252" t="inlineStr">
         <is>
           <t>N</t>
@@ -21891,6 +23146,11 @@
       <c r="R253">
         <v>60</v>
       </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V253" t="inlineStr">
         <is>
           <t>N</t>
@@ -21976,6 +23236,11 @@
       <c r="R254">
         <v>60</v>
       </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V254" t="inlineStr">
         <is>
           <t>N</t>
@@ -22061,6 +23326,11 @@
       <c r="R255">
         <v>60</v>
       </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V255" t="inlineStr">
         <is>
           <t>N</t>
@@ -22146,6 +23416,11 @@
       <c r="R256">
         <v>60</v>
       </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V256" t="inlineStr">
         <is>
           <t>N</t>
@@ -22231,6 +23506,11 @@
       <c r="R257">
         <v>60</v>
       </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V257" t="inlineStr">
         <is>
           <t>N</t>
@@ -22316,6 +23596,11 @@
       <c r="R258">
         <v>60</v>
       </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V258" t="inlineStr">
         <is>
           <t>N</t>
@@ -22401,6 +23686,11 @@
       <c r="R259">
         <v>60</v>
       </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V259" t="inlineStr">
         <is>
           <t>N</t>
@@ -22486,6 +23776,11 @@
       <c r="R260">
         <v>60</v>
       </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V260" t="inlineStr">
         <is>
           <t>N</t>
@@ -22571,6 +23866,11 @@
       <c r="R261">
         <v>60</v>
       </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V261" t="inlineStr">
         <is>
           <t>N</t>
@@ -22656,6 +23956,11 @@
       <c r="R262">
         <v>60</v>
       </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V262" t="inlineStr">
         <is>
           <t>N</t>
@@ -22741,6 +24046,11 @@
       <c r="R263">
         <v>60</v>
       </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V263" t="inlineStr">
         <is>
           <t>N</t>
@@ -22826,6 +24136,11 @@
       <c r="R264">
         <v>100</v>
       </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V264" t="inlineStr">
         <is>
           <t>N</t>
@@ -22911,6 +24226,11 @@
       <c r="R265">
         <v>100</v>
       </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V265" t="inlineStr">
         <is>
           <t>N</t>
@@ -22996,6 +24316,11 @@
       <c r="R266">
         <v>100</v>
       </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V266" t="inlineStr">
         <is>
           <t>N</t>
@@ -23081,6 +24406,11 @@
       <c r="R267">
         <v>100</v>
       </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V267" t="inlineStr">
         <is>
           <t>N</t>
@@ -23166,6 +24496,11 @@
       <c r="R268">
         <v>100</v>
       </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V268" t="inlineStr">
         <is>
           <t>N</t>
@@ -23251,6 +24586,11 @@
       <c r="R269">
         <v>100</v>
       </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V269" t="inlineStr">
         <is>
           <t>N</t>
@@ -23336,6 +24676,11 @@
       <c r="R270">
         <v>50</v>
       </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V270" t="inlineStr">
         <is>
           <t>N</t>
@@ -23421,6 +24766,11 @@
       <c r="R271">
         <v>50</v>
       </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V271" t="inlineStr">
         <is>
           <t>N</t>
@@ -23506,6 +24856,11 @@
       <c r="R272">
         <v>50</v>
       </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V272" t="inlineStr">
         <is>
           <t>N</t>
@@ -23591,6 +24946,11 @@
       <c r="R273">
         <v>50</v>
       </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V273" t="inlineStr">
         <is>
           <t>N</t>
@@ -23676,6 +25036,11 @@
       <c r="R274">
         <v>50</v>
       </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V274" t="inlineStr">
         <is>
           <t>N</t>
@@ -23761,6 +25126,11 @@
       <c r="R275">
         <v>50</v>
       </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V275" t="inlineStr">
         <is>
           <t>N</t>
@@ -23846,6 +25216,11 @@
       <c r="R276">
         <v>50</v>
       </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V276" t="inlineStr">
         <is>
           <t>N</t>
@@ -23931,6 +25306,11 @@
       <c r="R277">
         <v>50</v>
       </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V277" t="inlineStr">
         <is>
           <t>N</t>
@@ -24016,6 +25396,11 @@
       <c r="R278">
         <v>50</v>
       </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V278" t="inlineStr">
         <is>
           <t>N</t>
@@ -24101,6 +25486,11 @@
       <c r="R279">
         <v>50</v>
       </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V279" t="inlineStr">
         <is>
           <t>N</t>
@@ -24186,6 +25576,11 @@
       <c r="R280">
         <v>50</v>
       </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V280" t="inlineStr">
         <is>
           <t>N</t>
@@ -24271,6 +25666,11 @@
       <c r="R281">
         <v>50</v>
       </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V281" t="inlineStr">
         <is>
           <t>N</t>
@@ -24356,6 +25756,11 @@
       <c r="R282">
         <v>50</v>
       </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V282" t="inlineStr">
         <is>
           <t>N</t>
@@ -24441,6 +25846,11 @@
       <c r="R283">
         <v>50</v>
       </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V283" t="inlineStr">
         <is>
           <t>N</t>
@@ -24526,6 +25936,11 @@
       <c r="R284">
         <v>50</v>
       </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V284" t="inlineStr">
         <is>
           <t>N</t>
@@ -24611,6 +26026,11 @@
       <c r="R285">
         <v>166</v>
       </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V285" t="inlineStr">
         <is>
           <t>N</t>
@@ -24696,6 +26116,11 @@
       <c r="R286">
         <v>253</v>
       </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V286" t="inlineStr">
         <is>
           <t>N</t>
@@ -24781,6 +26206,11 @@
       <c r="R287">
         <v>115</v>
       </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V287" t="inlineStr">
         <is>
           <t>N</t>
@@ -24866,6 +26296,11 @@
       <c r="R288">
         <v>137</v>
       </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V288" t="inlineStr">
         <is>
           <t>N</t>
@@ -24951,6 +26386,11 @@
       <c r="R289">
         <v>98</v>
       </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V289" t="inlineStr">
         <is>
           <t>N</t>
@@ -25036,6 +26476,11 @@
       <c r="R290">
         <v>58</v>
       </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V290" t="inlineStr">
         <is>
           <t>N</t>
@@ -25121,6 +26566,11 @@
       <c r="R291">
         <v>67</v>
       </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V291" t="inlineStr">
         <is>
           <t>N</t>
@@ -25206,6 +26656,11 @@
       <c r="R292">
         <v>240</v>
       </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V292" t="inlineStr">
         <is>
           <t>N</t>
@@ -25291,6 +26746,11 @@
       <c r="R293">
         <v>240</v>
       </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V293" t="inlineStr">
         <is>
           <t>N</t>
@@ -25376,6 +26836,11 @@
       <c r="R294">
         <v>240</v>
       </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>N</t>
@@ -25461,6 +26926,11 @@
       <c r="R295">
         <v>90</v>
       </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V295" t="inlineStr">
         <is>
           <t>N</t>
@@ -25546,6 +27016,11 @@
       <c r="R296">
         <v>300</v>
       </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V296" t="inlineStr">
         <is>
           <t>N</t>
@@ -25631,6 +27106,11 @@
       <c r="R297">
         <v>92</v>
       </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V297" t="inlineStr">
         <is>
           <t>N</t>
@@ -25716,6 +27196,11 @@
       <c r="R298">
         <v>75</v>
       </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V298" t="inlineStr">
         <is>
           <t>N</t>
@@ -25801,6 +27286,11 @@
       <c r="R299">
         <v>83</v>
       </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V299" t="inlineStr">
         <is>
           <t>N</t>
@@ -25886,6 +27376,11 @@
       <c r="R300">
         <v>46</v>
       </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V300" t="inlineStr">
         <is>
           <t>N</t>
@@ -25971,6 +27466,11 @@
       <c r="R301">
         <v>27</v>
       </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V301" t="inlineStr">
         <is>
           <t>N</t>
@@ -26056,6 +27556,11 @@
       <c r="R302">
         <v>100</v>
       </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V302" t="inlineStr">
         <is>
           <t>N</t>
@@ -26141,6 +27646,11 @@
       <c r="R303">
         <v>100</v>
       </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V303" t="inlineStr">
         <is>
           <t>N</t>
@@ -26226,6 +27736,11 @@
       <c r="R304">
         <v>100</v>
       </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V304" t="inlineStr">
         <is>
           <t>N</t>
@@ -26311,6 +27826,11 @@
       <c r="R305">
         <v>100</v>
       </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V305" t="inlineStr">
         <is>
           <t>N</t>
@@ -26396,6 +27916,11 @@
       <c r="R306">
         <v>100</v>
       </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V306" t="inlineStr">
         <is>
           <t>N</t>
@@ -26481,6 +28006,11 @@
       <c r="R307">
         <v>100</v>
       </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V307" t="inlineStr">
         <is>
           <t>N</t>
@@ -26566,6 +28096,11 @@
       <c r="R308">
         <v>100</v>
       </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V308" t="inlineStr">
         <is>
           <t>N</t>
@@ -26651,6 +28186,11 @@
       <c r="R309">
         <v>100</v>
       </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V309" t="inlineStr">
         <is>
           <t>N</t>
@@ -26736,6 +28276,11 @@
       <c r="R310">
         <v>100</v>
       </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V310" t="inlineStr">
         <is>
           <t>N</t>
@@ -26821,6 +28366,11 @@
       <c r="R311">
         <v>100</v>
       </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V311" t="inlineStr">
         <is>
           <t>N</t>
@@ -26906,6 +28456,11 @@
       <c r="R312">
         <v>100</v>
       </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V312" t="inlineStr">
         <is>
           <t>N</t>
@@ -26991,6 +28546,11 @@
       <c r="R313">
         <v>100</v>
       </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V313" t="inlineStr">
         <is>
           <t>N</t>
@@ -27076,6 +28636,11 @@
       <c r="R314">
         <v>303</v>
       </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V314" t="inlineStr">
         <is>
           <t>N</t>
@@ -27161,6 +28726,11 @@
       <c r="R315">
         <v>302</v>
       </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V315" t="inlineStr">
         <is>
           <t>N</t>
@@ -27246,6 +28816,11 @@
       <c r="R316">
         <v>303</v>
       </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V316" t="inlineStr">
         <is>
           <t>N</t>
@@ -27331,6 +28906,11 @@
       <c r="R317">
         <v>302</v>
       </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V317" t="inlineStr">
         <is>
           <t>N</t>
@@ -27416,6 +28996,11 @@
       <c r="R318">
         <v>303</v>
       </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V318" t="inlineStr">
         <is>
           <t>N</t>
@@ -27501,6 +29086,11 @@
       <c r="R319">
         <v>323</v>
       </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V319" t="inlineStr">
         <is>
           <t>N</t>
@@ -27586,6 +29176,11 @@
       <c r="R320">
         <v>302</v>
       </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V320" t="inlineStr">
         <is>
           <t>N</t>
@@ -27671,6 +29266,11 @@
       <c r="R321">
         <v>318</v>
       </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V321" t="inlineStr">
         <is>
           <t>N</t>
@@ -27756,6 +29356,11 @@
       <c r="R322">
         <v>323</v>
       </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V322" t="inlineStr">
         <is>
           <t>N</t>
@@ -27841,6 +29446,11 @@
       <c r="R323">
         <v>318</v>
       </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V323" t="inlineStr">
         <is>
           <t>N</t>
@@ -27926,6 +29536,11 @@
       <c r="R324">
         <v>88</v>
       </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V324" t="inlineStr">
         <is>
           <t>N</t>
@@ -28011,6 +29626,11 @@
       <c r="R325">
         <v>96</v>
       </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V325" t="inlineStr">
         <is>
           <t>N</t>
@@ -28096,6 +29716,11 @@
       <c r="R326">
         <v>96</v>
       </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V326" t="inlineStr">
         <is>
           <t>N</t>
@@ -28181,6 +29806,11 @@
       <c r="R327">
         <v>88</v>
       </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V327" t="inlineStr">
         <is>
           <t>N</t>
@@ -28266,6 +29896,11 @@
       <c r="R328">
         <v>96</v>
       </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V328" t="inlineStr">
         <is>
           <t>N</t>
@@ -28351,6 +29986,11 @@
       <c r="R329">
         <v>88</v>
       </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V329" t="inlineStr">
         <is>
           <t>N</t>
@@ -28436,6 +30076,11 @@
       <c r="R330">
         <v>36</v>
       </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V330" t="inlineStr">
         <is>
           <t>N</t>
@@ -28521,6 +30166,11 @@
       <c r="R331">
         <v>20</v>
       </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V331" t="inlineStr">
         <is>
           <t>N</t>
@@ -28606,6 +30256,11 @@
       <c r="R332">
         <v>20</v>
       </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V332" t="inlineStr">
         <is>
           <t>N</t>
@@ -28691,6 +30346,11 @@
       <c r="R333">
         <v>20</v>
       </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V333" t="inlineStr">
         <is>
           <t>N</t>
@@ -28776,6 +30436,11 @@
       <c r="R334">
         <v>20</v>
       </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V334" t="inlineStr">
         <is>
           <t>N</t>
@@ -28861,6 +30526,11 @@
       <c r="R335">
         <v>20</v>
       </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V335" t="inlineStr">
         <is>
           <t>N</t>
@@ -28946,6 +30616,11 @@
       <c r="R336">
         <v>11</v>
       </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V336" t="inlineStr">
         <is>
           <t>N</t>
@@ -29031,6 +30706,11 @@
       <c r="R337">
         <v>18</v>
       </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V337" t="inlineStr">
         <is>
           <t>N</t>
@@ -29116,6 +30796,11 @@
       <c r="R338">
         <v>18</v>
       </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V338" t="inlineStr">
         <is>
           <t>N</t>
@@ -29201,6 +30886,11 @@
       <c r="R339">
         <v>18</v>
       </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V339" t="inlineStr">
         <is>
           <t>N</t>
@@ -29286,6 +30976,11 @@
       <c r="R340">
         <v>18</v>
       </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V340" t="inlineStr">
         <is>
           <t>N</t>
@@ -29371,6 +31066,11 @@
       <c r="R341">
         <v>18</v>
       </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V341" t="inlineStr">
         <is>
           <t>N</t>
@@ -29456,6 +31156,11 @@
       <c r="R342">
         <v>18</v>
       </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V342" t="inlineStr">
         <is>
           <t>N</t>
@@ -29541,6 +31246,11 @@
       <c r="R343">
         <v>50</v>
       </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V343" t="inlineStr">
         <is>
           <t>N</t>
@@ -29626,6 +31336,11 @@
       <c r="R344">
         <v>50</v>
       </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V344" t="inlineStr">
         <is>
           <t>N</t>
@@ -29711,6 +31426,11 @@
       <c r="R345">
         <v>50</v>
       </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V345" t="inlineStr">
         <is>
           <t>N</t>
@@ -29796,6 +31516,11 @@
       <c r="R346">
         <v>50</v>
       </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V346" t="inlineStr">
         <is>
           <t>N</t>
@@ -29881,6 +31606,11 @@
       <c r="R347">
         <v>50</v>
       </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V347" t="inlineStr">
         <is>
           <t>N</t>
@@ -29966,6 +31696,11 @@
       <c r="R348">
         <v>50</v>
       </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V348" t="inlineStr">
         <is>
           <t>N</t>
@@ -30051,6 +31786,11 @@
       <c r="R349">
         <v>50</v>
       </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V349" t="inlineStr">
         <is>
           <t>N</t>
@@ -30136,6 +31876,11 @@
       <c r="R350">
         <v>50</v>
       </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V350" t="inlineStr">
         <is>
           <t>N</t>
@@ -30221,6 +31966,11 @@
       <c r="R351">
         <v>50</v>
       </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V351" t="inlineStr">
         <is>
           <t>N</t>
@@ -30306,6 +32056,11 @@
       <c r="R352">
         <v>50</v>
       </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V352" t="inlineStr">
         <is>
           <t>N</t>
@@ -30391,6 +32146,11 @@
       <c r="R353">
         <v>50</v>
       </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V353" t="inlineStr">
         <is>
           <t>N</t>
@@ -30476,6 +32236,11 @@
       <c r="R354">
         <v>50</v>
       </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V354" t="inlineStr">
         <is>
           <t>N</t>
@@ -30561,6 +32326,11 @@
       <c r="R355">
         <v>50</v>
       </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V355" t="inlineStr">
         <is>
           <t>N</t>
@@ -30646,6 +32416,11 @@
       <c r="R356">
         <v>50</v>
       </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V356" t="inlineStr">
         <is>
           <t>N</t>
@@ -30731,6 +32506,11 @@
       <c r="R357">
         <v>50</v>
       </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V357" t="inlineStr">
         <is>
           <t>N</t>
@@ -30816,6 +32596,11 @@
       <c r="R358">
         <v>50</v>
       </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V358" t="inlineStr">
         <is>
           <t>N</t>
@@ -30901,6 +32686,11 @@
       <c r="R359">
         <v>50</v>
       </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V359" t="inlineStr">
         <is>
           <t>N</t>
@@ -30986,6 +32776,11 @@
       <c r="R360">
         <v>50</v>
       </c>
+      <c r="U360" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V360" t="inlineStr">
         <is>
           <t>N</t>
@@ -31071,6 +32866,11 @@
       <c r="R361">
         <v>50</v>
       </c>
+      <c r="U361" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V361" t="inlineStr">
         <is>
           <t>N</t>
@@ -31156,6 +32956,11 @@
       <c r="R362">
         <v>50</v>
       </c>
+      <c r="U362" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V362" t="inlineStr">
         <is>
           <t>N</t>
@@ -31241,6 +33046,11 @@
       <c r="R363">
         <v>50</v>
       </c>
+      <c r="U363" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V363" t="inlineStr">
         <is>
           <t>N</t>
@@ -31326,6 +33136,11 @@
       <c r="R364">
         <v>50</v>
       </c>
+      <c r="U364" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V364" t="inlineStr">
         <is>
           <t>N</t>
@@ -31411,6 +33226,11 @@
       <c r="R365">
         <v>50</v>
       </c>
+      <c r="U365" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V365" t="inlineStr">
         <is>
           <t>N</t>
@@ -31496,6 +33316,11 @@
       <c r="R366">
         <v>50</v>
       </c>
+      <c r="U366" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V366" t="inlineStr">
         <is>
           <t>N</t>
@@ -31581,6 +33406,11 @@
       <c r="R367">
         <v>113</v>
       </c>
+      <c r="U367" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V367" t="inlineStr">
         <is>
           <t>N</t>
@@ -31666,6 +33496,11 @@
       <c r="R368">
         <v>150</v>
       </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V368" t="inlineStr">
         <is>
           <t>N</t>
@@ -31751,6 +33586,11 @@
       <c r="R369">
         <v>148</v>
       </c>
+      <c r="U369" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V369" t="inlineStr">
         <is>
           <t>N</t>
@@ -31836,6 +33676,11 @@
       <c r="R370">
         <v>150</v>
       </c>
+      <c r="U370" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V370" t="inlineStr">
         <is>
           <t>N</t>
@@ -31921,6 +33766,11 @@
       <c r="R371">
         <v>148</v>
       </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V371" t="inlineStr">
         <is>
           <t>N</t>
@@ -32006,6 +33856,11 @@
       <c r="R372">
         <v>150</v>
       </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V372" t="inlineStr">
         <is>
           <t>N</t>
@@ -32091,6 +33946,11 @@
       <c r="R373">
         <v>148</v>
       </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V373" t="inlineStr">
         <is>
           <t>N</t>
@@ -32176,6 +34036,11 @@
       <c r="R374">
         <v>14</v>
       </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V374" t="inlineStr">
         <is>
           <t>N</t>
@@ -32261,6 +34126,11 @@
       <c r="R375">
         <v>14</v>
       </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V375" t="inlineStr">
         <is>
           <t>N</t>
@@ -32346,6 +34216,11 @@
       <c r="R376">
         <v>14</v>
       </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V376" t="inlineStr">
         <is>
           <t>N</t>
@@ -32431,6 +34306,11 @@
       <c r="R377">
         <v>50</v>
       </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V377" t="inlineStr">
         <is>
           <t>N</t>
@@ -32516,6 +34396,11 @@
       <c r="R378">
         <v>50</v>
       </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V378" t="inlineStr">
         <is>
           <t>N</t>
@@ -32601,6 +34486,11 @@
       <c r="R379">
         <v>50</v>
       </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V379" t="inlineStr">
         <is>
           <t>N</t>
@@ -32686,6 +34576,11 @@
       <c r="R380">
         <v>30</v>
       </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V380" t="inlineStr">
         <is>
           <t>N</t>
@@ -32771,6 +34666,11 @@
       <c r="R381">
         <v>25</v>
       </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V381" t="inlineStr">
         <is>
           <t>N</t>
@@ -32856,6 +34756,11 @@
       <c r="R382">
         <v>25</v>
       </c>
+      <c r="U382" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V382" t="inlineStr">
         <is>
           <t>N</t>
@@ -32941,6 +34846,11 @@
       <c r="R383">
         <v>25</v>
       </c>
+      <c r="U383" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V383" t="inlineStr">
         <is>
           <t>N</t>
@@ -33026,6 +34936,11 @@
       <c r="R384">
         <v>30</v>
       </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V384" t="inlineStr">
         <is>
           <t>N</t>
@@ -33111,6 +35026,11 @@
       <c r="R385">
         <v>30</v>
       </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V385" t="inlineStr">
         <is>
           <t>N</t>
@@ -33196,6 +35116,11 @@
       <c r="R386">
         <v>50</v>
       </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V386" t="inlineStr">
         <is>
           <t>N</t>
@@ -33281,6 +35206,11 @@
       <c r="R387">
         <v>50</v>
       </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V387" t="inlineStr">
         <is>
           <t>N</t>
@@ -33366,6 +35296,11 @@
       <c r="R388">
         <v>50</v>
       </c>
+      <c r="U388" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V388" t="inlineStr">
         <is>
           <t>N</t>
@@ -33451,6 +35386,11 @@
       <c r="R389">
         <v>30</v>
       </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V389" t="inlineStr">
         <is>
           <t>N</t>
@@ -33536,6 +35476,11 @@
       <c r="R390">
         <v>30</v>
       </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V390" t="inlineStr">
         <is>
           <t>N</t>
@@ -33621,6 +35566,11 @@
       <c r="R391">
         <v>30</v>
       </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V391" t="inlineStr">
         <is>
           <t>N</t>
@@ -33706,6 +35656,11 @@
       <c r="R392">
         <v>30</v>
       </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V392" t="inlineStr">
         <is>
           <t>N</t>
@@ -33791,6 +35746,11 @@
       <c r="R393">
         <v>30</v>
       </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V393" t="inlineStr">
         <is>
           <t>N</t>
@@ -33876,6 +35836,11 @@
       <c r="R394">
         <v>30</v>
       </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V394" t="inlineStr">
         <is>
           <t>N</t>
@@ -33961,6 +35926,11 @@
       <c r="R395">
         <v>30</v>
       </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V395" t="inlineStr">
         <is>
           <t>N</t>
@@ -34046,6 +36016,11 @@
       <c r="R396">
         <v>30</v>
       </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V396" t="inlineStr">
         <is>
           <t>N</t>
@@ -34131,6 +36106,11 @@
       <c r="R397">
         <v>30</v>
       </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V397" t="inlineStr">
         <is>
           <t>N</t>
@@ -34216,6 +36196,11 @@
       <c r="R398">
         <v>30</v>
       </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V398" t="inlineStr">
         <is>
           <t>N</t>
@@ -34301,6 +36286,11 @@
       <c r="R399">
         <v>30</v>
       </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V399" t="inlineStr">
         <is>
           <t>N</t>
@@ -34386,6 +36376,11 @@
       <c r="R400">
         <v>30</v>
       </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V400" t="inlineStr">
         <is>
           <t>N</t>
@@ -34471,6 +36466,11 @@
       <c r="R401">
         <v>30</v>
       </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V401" t="inlineStr">
         <is>
           <t>N</t>
@@ -34556,6 +36556,11 @@
       <c r="R402">
         <v>30</v>
       </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V402" t="inlineStr">
         <is>
           <t>N</t>
@@ -34641,6 +36646,11 @@
       <c r="R403">
         <v>30</v>
       </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V403" t="inlineStr">
         <is>
           <t>N</t>
@@ -34726,6 +36736,11 @@
       <c r="R404">
         <v>30</v>
       </c>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V404" t="inlineStr">
         <is>
           <t>N</t>
@@ -34811,6 +36826,11 @@
       <c r="R405">
         <v>50</v>
       </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V405" t="inlineStr">
         <is>
           <t>N</t>
@@ -34896,6 +36916,11 @@
       <c r="R406">
         <v>50</v>
       </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V406" t="inlineStr">
         <is>
           <t>N</t>
@@ -34981,6 +37006,11 @@
       <c r="R407">
         <v>50</v>
       </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V407" t="inlineStr">
         <is>
           <t>N</t>
@@ -35066,6 +37096,11 @@
       <c r="R408">
         <v>30</v>
       </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V408" t="inlineStr">
         <is>
           <t>N</t>
@@ -35151,6 +37186,11 @@
       <c r="R409">
         <v>30</v>
       </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V409" t="inlineStr">
         <is>
           <t>N</t>
@@ -35236,6 +37276,11 @@
       <c r="R410">
         <v>30</v>
       </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V410" t="inlineStr">
         <is>
           <t>N</t>
@@ -35321,6 +37366,11 @@
       <c r="R411">
         <v>30</v>
       </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V411" t="inlineStr">
         <is>
           <t>N</t>
@@ -35406,6 +37456,11 @@
       <c r="R412">
         <v>50</v>
       </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V412" t="inlineStr">
         <is>
           <t>N</t>
@@ -35491,6 +37546,11 @@
       <c r="R413">
         <v>50</v>
       </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V413" t="inlineStr">
         <is>
           <t>N</t>
@@ -35576,6 +37636,11 @@
       <c r="R414">
         <v>50</v>
       </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V414" t="inlineStr">
         <is>
           <t>N</t>
@@ -35661,6 +37726,11 @@
       <c r="R415">
         <v>50</v>
       </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V415" t="inlineStr">
         <is>
           <t>N</t>
@@ -35746,6 +37816,11 @@
       <c r="R416">
         <v>50</v>
       </c>
+      <c r="U416" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V416" t="inlineStr">
         <is>
           <t>N</t>
@@ -35831,6 +37906,11 @@
       <c r="R417">
         <v>50</v>
       </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V417" t="inlineStr">
         <is>
           <t>N</t>
@@ -35916,6 +37996,11 @@
       <c r="R418">
         <v>100</v>
       </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V418" t="inlineStr">
         <is>
           <t>N</t>
@@ -36001,6 +38086,11 @@
       <c r="R419">
         <v>100</v>
       </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V419" t="inlineStr">
         <is>
           <t>N</t>
@@ -36086,6 +38176,11 @@
       <c r="R420">
         <v>25</v>
       </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V420" t="inlineStr">
         <is>
           <t>N</t>
@@ -36171,6 +38266,11 @@
       <c r="R421">
         <v>25</v>
       </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V421" t="inlineStr">
         <is>
           <t>N</t>
@@ -36256,6 +38356,11 @@
       <c r="R422">
         <v>25</v>
       </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V422" t="inlineStr">
         <is>
           <t>N</t>
@@ -36341,6 +38446,11 @@
       <c r="R423">
         <v>25</v>
       </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V423" t="inlineStr">
         <is>
           <t>N</t>
@@ -36426,6 +38536,11 @@
       <c r="R424">
         <v>25</v>
       </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V424" t="inlineStr">
         <is>
           <t>N</t>
@@ -36511,6 +38626,11 @@
       <c r="R425">
         <v>25</v>
       </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V425" t="inlineStr">
         <is>
           <t>N</t>
@@ -36596,6 +38716,11 @@
       <c r="R426">
         <v>25</v>
       </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V426" t="inlineStr">
         <is>
           <t>N</t>
@@ -36681,6 +38806,11 @@
       <c r="R427">
         <v>25</v>
       </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V427" t="inlineStr">
         <is>
           <t>N</t>
@@ -36766,6 +38896,11 @@
       <c r="R428">
         <v>25</v>
       </c>
+      <c r="U428" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V428" t="inlineStr">
         <is>
           <t>N</t>
@@ -36851,6 +38986,11 @@
       <c r="R429">
         <v>25</v>
       </c>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V429" t="inlineStr">
         <is>
           <t>N</t>
@@ -36936,6 +39076,11 @@
       <c r="R430">
         <v>25</v>
       </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V430" t="inlineStr">
         <is>
           <t>N</t>
@@ -37021,6 +39166,11 @@
       <c r="R431">
         <v>25</v>
       </c>
+      <c r="U431" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V431" t="inlineStr">
         <is>
           <t>N</t>
@@ -37106,6 +39256,11 @@
       <c r="R432">
         <v>25</v>
       </c>
+      <c r="U432" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V432" t="inlineStr">
         <is>
           <t>N</t>
@@ -37191,6 +39346,11 @@
       <c r="R433">
         <v>25</v>
       </c>
+      <c r="U433" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V433" t="inlineStr">
         <is>
           <t>N</t>
@@ -37276,6 +39436,11 @@
       <c r="R434">
         <v>25</v>
       </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V434" t="inlineStr">
         <is>
           <t>N</t>
@@ -37361,6 +39526,11 @@
       <c r="R435">
         <v>25</v>
       </c>
+      <c r="U435" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V435" t="inlineStr">
         <is>
           <t>N</t>
@@ -37446,6 +39616,11 @@
       <c r="R436">
         <v>25</v>
       </c>
+      <c r="U436" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V436" t="inlineStr">
         <is>
           <t>N</t>
@@ -37531,6 +39706,11 @@
       <c r="R437">
         <v>25</v>
       </c>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V437" t="inlineStr">
         <is>
           <t>N</t>
@@ -37613,6 +39793,11 @@
       <c r="R438">
         <v>80</v>
       </c>
+      <c r="U438" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V438" t="inlineStr">
         <is>
           <t>N</t>
@@ -37694,6 +39879,11 @@
       </c>
       <c r="R439">
         <v>80</v>
+      </c>
+      <c r="U439" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="V439" t="inlineStr">
         <is>

--- a/Data processing/LO_compcase_es.xlsx
+++ b/Data processing/LO_compcase_es.xlsx
@@ -49585,7 +49585,7 @@
         <v>24</v>
       </c>
       <c r="AA502">
-        <v>-0.5860025431086175</v>
+        <v>-0.5860025431086177</v>
       </c>
       <c r="AB502">
         <v>0.1816590272472625</v>
@@ -51349,7 +51349,7 @@
         <v>19</v>
       </c>
       <c r="AA520">
-        <v>0.3206262281711347</v>
+        <v>0.3206262281711348</v>
       </c>
       <c r="AB520">
         <v>0.1814194577352472</v>
